--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE5F27C-6A07-854D-A99C-F84DA4334611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256790D6-3AA4-284C-A5BE-150049B4CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuille3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuille3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>Définition maladie</t>
   </si>
@@ -127,30 +126,6 @@
   </si>
   <si>
     <t>Migraines</t>
-  </si>
-  <si>
-    <t>Prendre l'étatPatient MAX à chaque fois qu'on change de médicament, médicament actuel avant de changer</t>
-  </si>
-  <si>
-    <t>Prendre le médicaments effet &gt;= etat order by prix</t>
-  </si>
-  <si>
-    <t>Actualiser l'état du patient avec ce médicament</t>
-  </si>
-  <si>
-    <t>(on fait max(étatPatient - effetMedoc, 0) = nouveau étatPatient)</t>
-  </si>
-  <si>
-    <t>S'arrêter quand la moyenne de l'étatPatient est 2</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prix </t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Température</t>
@@ -209,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,37 +231,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -483,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,429 +459,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
         <v>10</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>9000</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
         <v>8000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
         <v>7</v>
       </c>
-      <c r="D19" s="4">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4">
-        <v>9</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="4">
-        <v>6</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4">
         <v>11000</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>7</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="H20" s="4">
-        <v>4</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H20" s="3">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4">
         <v>12000</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>10</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>4000</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
         <v>5</v>
       </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4">
-        <v>9</v>
-      </c>
-      <c r="H22" s="4">
-        <v>2</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="J25" s="3" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>7</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>8</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>9</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>9</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -936,218 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f>AVERAGE(B8:H8)</f>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f>AVERAGE(B9:H9)</f>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="J9" s="5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f>AVERAGE(B10:H10)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J10" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f>AVERAGE(B11:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="9">
-        <f>SUM(J9:J11)</f>
-        <v>18000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,330 +913,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>-1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>-1</v>
       </c>
-      <c r="H4" s="4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4">
         <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>-1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>3200</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>-1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
         <v>6000</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>6</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>38</v>
+      <c r="A18" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>39</v>
+      <c r="A24" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
